--- a/static/DTC_Gantt_Chart.xlsx
+++ b/static/DTC_Gantt_Chart.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{82601C84-680F-416C-8597-3278F6EF5C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9773A06-B274-458D-97D5-F91204CCFD00}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="13_ncr:1_{82601C84-680F-416C-8597-3278F6EF5C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FBE9617-EC25-48CF-B818-1E06025AFDF5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -580,41 +580,41 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1027,11 +1027,11 @@
   </sheetPr>
   <dimension ref="B1:AQ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="22.875" style="2" customWidth="1"/>
@@ -1041,7 +1041,7 @@
     <col min="9" max="27" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:43" ht="60" customHeight="1">
+    <row r="1" spans="2:43" ht="60" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1051,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="2:43" ht="21" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="2:43" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
@@ -1066,66 +1066,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="25"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="27" t="s">
+      <c r="V2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="29"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="34"/>
       <c r="Z2" s="18"/>
-      <c r="AA2" s="27" t="s">
+      <c r="AA2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="29"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="34"/>
       <c r="AH2" s="19"/>
-      <c r="AI2" s="27" t="s">
+      <c r="AI2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
     </row>
-    <row r="3" spans="2:43" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
-      <c r="B3" s="30" t="s">
+    <row r="3" spans="2:43" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="29" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="20" t="s">
@@ -1151,13 +1151,13 @@
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="2:43" ht="15.75" customHeight="1">
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+    <row r="4" spans="2:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:43" ht="30" customHeight="1">
+    <row r="5" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1278,17 +1278,17 @@
         <v>1</v>
       </c>
       <c r="E5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="22"/>
     </row>
-    <row r="6" spans="2:43" ht="30" customHeight="1">
+    <row r="6" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="S6" s="22"/>
     </row>
-    <row r="7" spans="2:43" ht="30" customHeight="1">
+    <row r="7" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="S7" s="22"/>
     </row>
-    <row r="8" spans="2:43" ht="30" customHeight="1">
+    <row r="8" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
@@ -1341,17 +1341,17 @@
         <v>2</v>
       </c>
       <c r="E8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S8" s="22"/>
     </row>
-    <row r="9" spans="2:43" ht="30" customHeight="1">
+    <row r="9" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1362,17 +1362,17 @@
         <v>2</v>
       </c>
       <c r="E9" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="8">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="2:43" ht="30" customHeight="1">
+    <row r="10" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="S10" s="22"/>
     </row>
-    <row r="11" spans="2:43" ht="30" customHeight="1">
+    <row r="11" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="S11" s="22"/>
     </row>
-    <row r="12" spans="2:43" ht="30" customHeight="1">
+    <row r="12" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="S12" s="22"/>
     </row>
-    <row r="13" spans="2:43" ht="30" customHeight="1">
+    <row r="13" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="S13" s="22"/>
     </row>
-    <row r="14" spans="2:43" ht="30" customHeight="1">
+    <row r="14" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="S14" s="22"/>
     </row>
-    <row r="15" spans="2:43" ht="30" customHeight="1">
+    <row r="15" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="S15" s="22"/>
     </row>
-    <row r="16" spans="2:43" ht="30" customHeight="1">
+    <row r="16" spans="2:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="S16" s="22"/>
     </row>
-    <row r="17" spans="2:19" ht="30" customHeight="1">
+    <row r="17" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>27</v>
       </c>

--- a/static/DTC_Gantt_Chart.xlsx
+++ b/static/DTC_Gantt_Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="200" documentId="13_ncr:1_{82601C84-680F-416C-8597-3278F6EF5C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FBE9617-EC25-48CF-B818-1E06025AFDF5}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="13_ncr:1_{82601C84-680F-416C-8597-3278F6EF5C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74FCAC8B-DECF-4D24-A89C-8A12D43D6957}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1027,8 +1027,8 @@
   </sheetPr>
   <dimension ref="B1:AQ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1299,13 +1299,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
       </c>
       <c r="G6" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="S6" s="22"/>
     </row>

--- a/static/DTC_Gantt_Chart.xlsx
+++ b/static/DTC_Gantt_Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="202" documentId="13_ncr:1_{82601C84-680F-416C-8597-3278F6EF5C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74FCAC8B-DECF-4D24-A89C-8A12D43D6957}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="13_ncr:1_{82601C84-680F-416C-8597-3278F6EF5C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1DC9C4A-1463-4DCC-B357-DAB596EB20D1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,6 +794,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1027,8 +1031,8 @@
   </sheetPr>
   <dimension ref="B1:AQ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1344,7 +1348,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="8">
         <v>0.5</v>
@@ -1368,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S9" s="22"/>
     </row>
@@ -1383,13 +1387,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="22"/>
     </row>
@@ -1425,13 +1429,13 @@
         <v>3</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
       </c>
       <c r="G12" s="8">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="S12" s="22"/>
     </row>
@@ -1446,13 +1450,13 @@
         <v>4</v>
       </c>
       <c r="E13" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F13" s="7">
         <v>0</v>
       </c>
       <c r="G13" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S13" s="22"/>
     </row>
@@ -1612,7 +1616,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/static/DTC_Gantt_Chart.xlsx
+++ b/static/DTC_Gantt_Chart.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="216" documentId="13_ncr:1_{82601C84-680F-416C-8597-3278F6EF5C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1DC9C4A-1463-4DCC-B357-DAB596EB20D1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70835C9B-334F-4860-9D6B-8FA00E976122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,10 +794,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1031,8 +1027,8 @@
   </sheetPr>
   <dimension ref="B1:AQ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1324,13 +1320,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="22"/>
     </row>
@@ -1408,13 +1404,13 @@
         <v>4</v>
       </c>
       <c r="E11" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S11" s="22"/>
     </row>
@@ -1432,10 +1428,10 @@
         <v>4</v>
       </c>
       <c r="F12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="8">
-        <v>0.33</v>
+        <v>0.66</v>
       </c>
       <c r="S12" s="22"/>
     </row>
@@ -1453,10 +1449,10 @@
         <v>5</v>
       </c>
       <c r="F13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S13" s="22"/>
     </row>

--- a/static/DTC_Gantt_Chart.xlsx
+++ b/static/DTC_Gantt_Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70835C9B-334F-4860-9D6B-8FA00E976122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="13_ncr:1_{82601C84-680F-416C-8597-3278F6EF5C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC72A49C-168B-4AEF-BF69-88240C99EEF6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1028,7 +1028,7 @@
   <dimension ref="B1:AQ17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1302,10 +1302,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="8">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="S6" s="22"/>
     </row>
@@ -1347,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S8" s="22"/>
     </row>
@@ -1407,10 +1407,10 @@
         <v>7</v>
       </c>
       <c r="F11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S11" s="22"/>
     </row>
@@ -1467,13 +1467,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="8">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="S14" s="22"/>
     </row>

--- a/static/DTC_Gantt_Chart.xlsx
+++ b/static/DTC_Gantt_Chart.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="240" documentId="13_ncr:1_{82601C84-680F-416C-8597-3278F6EF5C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC72A49C-168B-4AEF-BF69-88240C99EEF6}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="13_ncr:1_{82601C84-680F-416C-8597-3278F6EF5C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{142473ED-9570-4BD5-BED7-2EE7471BFB61}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1407,10 +1407,10 @@
         <v>7</v>
       </c>
       <c r="F11" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S11" s="22"/>
     </row>
@@ -1428,10 +1428,10 @@
         <v>4</v>
       </c>
       <c r="F12" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G12" s="8">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="S12" s="22"/>
     </row>
@@ -1449,10 +1449,10 @@
         <v>5</v>
       </c>
       <c r="F13" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G13" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S13" s="22"/>
     </row>
@@ -1470,10 +1470,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G14" s="8">
-        <v>0.33</v>
+        <v>0.66</v>
       </c>
       <c r="S14" s="22"/>
     </row>
